--- a/static/images/存药.xlsx
+++ b/static/images/存药.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>存者</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>制首乌</t>
+  </si>
+  <si>
+    <t>生地</t>
+  </si>
+  <si>
+    <t>125g</t>
+  </si>
+  <si>
+    <t>麦冬</t>
+  </si>
+  <si>
+    <t>150g</t>
   </si>
   <si>
     <t>小柴胡</t>
@@ -218,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -247,6 +259,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -285,47 +320,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,24 +360,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +381,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,13 +405,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +453,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,6 +519,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,7 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,126 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,21 +596,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,26 +619,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +655,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -692,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,12 +1474,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="J1:M53"/>
+  <dimension ref="J1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
@@ -1711,157 +1723,173 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="11:11">
+    <row r="23" customHeight="1" spans="11:12">
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="11:12">
       <c r="K24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="11:11">
-      <c r="K25" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="11:11">
       <c r="K26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="11:11">
       <c r="K27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="11:11">
       <c r="K28" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="11:11">
       <c r="K29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="11:11">
       <c r="K30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="11:11">
       <c r="K31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="11:11">
       <c r="K32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="11:11">
       <c r="K33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="10:11">
-      <c r="J34" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="11:11">
       <c r="K34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="11:11">
       <c r="K35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="11:11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="10:11">
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="11:11">
       <c r="K37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="11:11">
       <c r="K38" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="11:11">
       <c r="K39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="11:11">
       <c r="K40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="11:11">
       <c r="K41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="11:11">
       <c r="K42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="11:11">
       <c r="K43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="11:11">
       <c r="K44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="11:11">
       <c r="K45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="11:11">
       <c r="K46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="11:11">
       <c r="K47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="11:11">
       <c r="K48" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="11:11">
       <c r="K49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="11:11">
       <c r="K50" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="11:11">
       <c r="K51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="11:11">
       <c r="K52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="11:11">
       <c r="K53" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="11:11">
+      <c r="K54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="11:11">
+      <c r="K55" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
